--- a/BackTest/2020-01-15 BackTest CON.xlsx
+++ b/BackTest/2020-01-15 BackTest CON.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-2075985.2774</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-2121541.2424</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-2065472.3624</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-2116034.477400001</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1984372.732400001</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-2016912.707400001</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-2016912.707400001</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1888254.652400001</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1888254.652400001</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1938552.442400001</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1896500.782400001</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1896500.782400001</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1826915.297400001</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1826915.297400001</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1876976.797400001</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1838930.057400001</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1909016.157400001</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1829418.372400001</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1767842.727400001</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1767842.727400001</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1806890.697400001</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1735803.367400001</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1792372.862400001</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1792372.862400001</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1751823.047400001</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1680235.102400001</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1723780.597400001</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1688236.932400001</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1724781.827400001</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1681228.322400001</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1751815.037400001</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1751815.037400001</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1715770.757400001</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1791363.622400001</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1722278.752400001</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-1722278.752400001</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1766833.487400001</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1712266.452400001</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1772340.252400001</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1772340.252400001</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1725282.442400001</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1687736.317400001</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1735294.742400001</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1676722.787400001</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1740801.507400001</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1740801.507400001</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1817896.217400001</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1766332.872400001</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-1839923.277400001</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1777346.402400001</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-1842426.352400001</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-1915516.142400001</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-1974588.712400001</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1870460.792400001</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1902500.152400001</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-1902500.152400001</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-1847432.502400002</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-1915015.527400001</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-1915015.527400001</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-1874141.313400001</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-1874141.313400001</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1904678.828400001</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1904678.828400001</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1870136.393400001</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-1907181.903400001</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1864129.013400001</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1792040.453400001</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1919537.081400001</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1839438.681400002</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1878987.266400001</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1810403.011400002</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1867973.736400002</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1822918.386400002</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1864469.431400002</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1811904.856400002</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1811904.856400002</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-1845946.676400002</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-1742819.986400002</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-1698765.866400002</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-1759340.281400002</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1685249.261400002</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1685249.261400002</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-1731806.456400002</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-1670731.426400002</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-1778363.651400002</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-1853455.901400002</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-1786373.491400002</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-1721794.156400002</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-1836935.606400002</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-1783870.416400002</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-1783242.096400002</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-1921912.451400002</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-1975978.871400002</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-1930422.906400002</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-1986491.786400001</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-1935929.671400002</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-2014025.611400001</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-1960459.806400002</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-1927919.831400001</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-1864341.726400001</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-1927419.216400001</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-1927419.216400001</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-1875355.256400001</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-1825794.371400001</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-1867846.031400001</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-1791251.936400001</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-1721289.989400001</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-1769849.644400002</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-1802890.234400002</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-1752828.734400002</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-1790875.474400002</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-1720789.374400001</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-1800387.159400001</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-1659714.344400001</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-1698762.314400001</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-1627674.984400001</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-1571105.489400001</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-1570336.544400001</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-1611386.974400001</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-1570837.159400001</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-1642425.104400001</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-1675379.983500001</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-1632827.708500001</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-1597284.043500001</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-1677382.443500001</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-1606795.728500001</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-1663865.838500001</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-1627821.558500001</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-1627821.558500001</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-1696906.428500001</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-1774501.753500001</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-1729947.018500001</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-1784514.053500001</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-1784514.053500001</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-1735453.783500001</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-1735453.783500001</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-1697907.658500001</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-1745466.083500001</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-1744833.306500001</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-1803405.261500001</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-1739326.541500001</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-1777873.896500001</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-1777873.896500001</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-1726310.551500001</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-1799900.956500001</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-1737324.081500001</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-1802404.031500001</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-1729314.241500001</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-1788386.811500001</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-1788386.811500001</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-1730315.471500001</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1762354.831500001</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-1793392.961500001</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-1738325.311500001</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-1805908.336500001</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-1754845.606500001</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-1794894.806500001</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-1727792.371500001</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-1758329.886500001</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-1791871.091500001</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-1757328.656500001</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-1794374.166500001</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-1679232.716500001</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-1679232.716500001</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-1600636.161500001</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-2841067.185600001</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-2841067.185600001</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-2841691.953600002</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-2773107.698600002</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-2715536.973600002</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-2760592.323600002</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-2719041.278600002</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-2771605.853600002</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-2675487.773600002</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-2675487.773600002</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-2710530.823600002</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-2710146.351600002</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-2754200.471600002</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-2693626.056600002</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-2693626.056600002</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-2768217.691600001</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-2721660.496600002</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-2782735.526600001</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-2706642.046600001</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-2738180.791600002</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-2738180.791600002</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-2671098.381600001</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-2606519.046600001</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-2662087.311600002</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-2602514.126600001</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-2602514.126600001</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-2675103.301600001</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-2609022.121600001</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-2609022.121600001</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-2562480.946600001</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-2669111.941600001</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-2747207.881600001</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-2693642.076600001</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-2693642.076600001</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-2693642.076600001</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-2759222.641600001</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-2592627.312900001</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-2942774.293200001</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-2984825.953200001</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-2908231.858200001</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-2838646.373200001</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-2887206.028200001</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-2854165.438200001</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-2766057.198200001</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-2766057.198200001</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-2845654.983200001</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-2907763.374200001</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-2986860.544200001</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-2947812.574200001</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-3018899.904200001</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-2962330.409200001</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-3003380.839200001</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-2962831.024200001</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-2962831.024200001</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-2920278.749200001</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-2955822.414200001</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-2992367.309200001</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-3035920.814200001</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-3035023.712200001</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-3105610.427200001</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-3048540.317200001</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-3048540.317200001</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-3124133.182200001</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-3055048.312200001</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-3132643.637200001</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-3132643.637200001</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-3072569.837200001</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-3121630.107200001</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-3074572.297200001</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-3075136.992200001</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-3037590.867200001</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-2990032.442200001</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-2867381.767200002</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-2867381.767200002</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-2944476.477200001</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-2892913.132200001</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-2756337.350200001</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-2821417.300200001</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-2953579.660200001</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-2907523.080200001</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-2907523.080200001</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-2875483.720200001</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-2906521.850200001</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-2906521.850200001</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-2906521.850200001</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-2906521.850200001</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-2866472.650200001</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-2933054.445200001</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-2963591.960200001</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-2997133.165200001</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-2962590.730200001</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-2962590.730200001</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-2962590.730200001</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-2962590.730200001</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-2962590.730200001</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-2962590.730200001</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-2962590.730200001</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-2962590.730200001</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-3031174.985200001</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-2973604.260200001</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-2974217.196200001</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-2929161.846200001</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-2929161.846200001</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-2867085.586200001</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-2969211.046200001</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-2969211.046200001</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-2925156.926200001</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-2925156.926200001</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-2999247.946200001</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-2999247.946200001</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-2891615.721200001</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-2967709.201200001</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-2967709.201200001</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-2892616.951200001</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-3024278.696200001</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-2968710.431200001</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-3028283.616200001</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-2975218.426200001</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-2975218.426200001</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-2975218.426200001</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-3029284.846200001</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-2983728.881200001</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-2983728.881200001</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-2984020.128300001</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-2984520.128300001</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-2984520.128300001</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-2798833.230000001</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-2913364.598700001</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-2913364.598700001</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-3313861.692500001</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-3313861.692500001</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-3313861.692500001</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-3313861.692500001</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-3313861.692500001</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-3313861.692500001</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-3313861.692500001</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-3947343.809500001</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-3979883.784500001</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-3979883.784500001</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-4279883.784500001</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-4151225.729500001</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-4069920.146200001</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-4119481.031200001</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-4077429.3712</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-4223608.9512</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-4538647.6515</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-4538647.6515</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-4538647.6515</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-4538647.6515</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-4468561.5515</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-4548159.3365</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-4486583.691500001</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-4565680.861500001</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-4565680.861500001</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-4494593.531500001</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-4494593.531500001</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-4576193.776500001</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-4576193.776500001</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-4576719.1505</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-4534166.8755</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-4534166.8755</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-4534166.8755</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-4534166.8755</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-4647408.2165</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-4590338.1065</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-4861120.7473</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-4825076.4673</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-4900669.3323</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-5007006.8635</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-5007006.8635</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-5084602.1885</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-5084602.1885</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-5030035.1535</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-5090366.2703</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-6493148.3414</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-6446090.531400001</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-6360985.981400001</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-6420447.028400001</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-6356368.308400001</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-6317820.953400001</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-6240726.243400001</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-6240726.243400001</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-6314316.648400001</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-6251739.773400001</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-6316819.723400001</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-6389909.513400001</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-6284780.363400001</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-6226709.023400001</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-6258748.383400002</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-6227710.253400002</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-6282777.903400002</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-6282777.903400002</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-6191665.973400002</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-6258247.768400002</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-6258247.768400002</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-6224706.563400002</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-6259248.998400002</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-5835760.903800001</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-5878813.793800001</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-5806725.233800001</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-5807197.814800002</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-5680542.219800002</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-5680542.219800002</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-5720090.804800002</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-5651506.549800002</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-5709077.274800002</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-5709077.274800002</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-5667526.229800002</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-5568327.013600002</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-5559121.763800002</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-5771358.685300002</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-5771358.685300002</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-5805400.505300002</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-5873484.145300002</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-5838441.095300002</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-5943069.630300002</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-5868978.610300003</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-5943570.245300002</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-5943570.245300002</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-5805937.164300002</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-8084708.613100003</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-8039152.648100004</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -16489,14 +16489,10 @@
         <v>-100170739.3086</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
-      </c>
-      <c r="I488" t="n">
-        <v>3.422</v>
-      </c>
-      <c r="J488" t="n">
-        <v>3.422</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
@@ -16529,14 +16525,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>3.422</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16568,14 +16558,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>3.422</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16769,10 +16753,14 @@
         <v>-99751851.96575163</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>3.422</v>
+      </c>
+      <c r="J496" t="n">
+        <v>3.422</v>
+      </c>
       <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
@@ -16805,8 +16793,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>3.422</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16838,8 +16832,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>3.422</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16901,10 +16901,14 @@
         <v>-99815048.30470207</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>3.426</v>
+      </c>
+      <c r="J500" t="n">
+        <v>3.426</v>
+      </c>
       <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
@@ -16937,8 +16941,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>3.426</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -16970,8 +16980,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>3.426</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17000,15 +17016,17 @@
         <v>-99887637.47970207</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
-      </c>
-      <c r="I503" t="n">
-        <v>3.427</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>3.427</v>
-      </c>
-      <c r="K503" t="inlineStr"/>
+        <v>3.426</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17037,15 +17055,17 @@
         <v>-99953718.65970208</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>3.426</v>
+      </c>
       <c r="J504" t="n">
-        <v>3.427</v>
+        <v>3.426</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L504" t="n">
@@ -17076,17 +17096,15 @@
         <v>-99899652.23970208</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
-      </c>
-      <c r="I505" t="n">
-        <v>3.425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>3.427</v>
+        <v>3.426</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L505" t="n">
@@ -17117,15 +17135,17 @@
         <v>-99945208.20470208</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
-      </c>
-      <c r="I506" t="n">
-        <v>3.427</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>3.427</v>
-      </c>
-      <c r="K506" t="inlineStr"/>
+        <v>3.426</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17154,17 +17174,17 @@
         <v>-99945800.93270208</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I507" t="n">
         <v>3.426</v>
       </c>
       <c r="J507" t="n">
-        <v>3.427</v>
+        <v>3.426</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L507" t="n">
@@ -17195,17 +17215,17 @@
         <v>-99889732.05270208</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I508" t="n">
         <v>3.424</v>
       </c>
       <c r="J508" t="n">
-        <v>3.427</v>
+        <v>3.426</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L508" t="n">
@@ -17236,15 +17256,19 @@
         <v>-99839169.93770209</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I509" t="n">
         <v>3.425</v>
       </c>
       <c r="J509" t="n">
-        <v>3.425</v>
-      </c>
-      <c r="K509" t="inlineStr"/>
+        <v>3.426</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17273,17 +17297,17 @@
         <v>-99313712.99770209</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I510" t="n">
         <v>3.428</v>
       </c>
       <c r="J510" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L510" t="n">
@@ -17314,17 +17338,17 @@
         <v>-98260147.19270208</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I511" t="n">
         <v>3.429</v>
       </c>
       <c r="J511" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L511" t="n">
@@ -17355,11 +17379,13 @@
         <v>-99431387.16770208</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>3.43</v>
+      </c>
       <c r="J512" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -17394,13 +17420,11 @@
         <v>-99367809.06270207</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
-      </c>
-      <c r="I513" t="n">
-        <v>3.427</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -17439,7 +17463,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -17474,13 +17498,11 @@
         <v>-99371193.21970208</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
-      </c>
-      <c r="I515" t="n">
-        <v>3.431</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -17515,13 +17537,11 @@
         <v>-99319097.37750091</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
-      </c>
-      <c r="I516" t="n">
-        <v>3.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -17556,13 +17576,11 @@
         <v>-99259299.75260091</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
-      </c>
-      <c r="I517" t="n">
-        <v>3.433</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -17601,7 +17619,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -17640,7 +17658,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -17679,7 +17697,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -17718,7 +17736,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -17757,7 +17775,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -17796,7 +17814,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -17835,7 +17853,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -17874,7 +17892,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -17913,7 +17931,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -17952,7 +17970,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -17991,7 +18009,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -18030,7 +18048,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -18069,7 +18087,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -18108,7 +18126,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -18147,7 +18165,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -18186,7 +18204,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -18225,7 +18243,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -18264,7 +18282,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -18303,7 +18321,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -18338,13 +18356,11 @@
         <v>-99417344.62839976</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
-      </c>
-      <c r="I537" t="n">
-        <v>3.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -18379,13 +18395,11 @@
         <v>-100558428.5651998</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
-      </c>
-      <c r="I538" t="n">
-        <v>3.435</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
       <c r="J538" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -18420,13 +18434,11 @@
         <v>-99530406.39769976</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
-      </c>
-      <c r="I539" t="n">
-        <v>3.425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
       <c r="J539" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -18461,13 +18473,11 @@
         <v>-99600993.11269976</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
-      </c>
-      <c r="I540" t="n">
-        <v>3.426</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
       <c r="J540" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -18502,13 +18512,13 @@
         <v>-99600993.11269976</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I541" t="n">
         <v>3.425</v>
       </c>
       <c r="J541" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -18543,13 +18553,13 @@
         <v>-99600993.11269976</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I542" t="n">
         <v>3.425</v>
       </c>
       <c r="J542" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -18584,13 +18594,13 @@
         <v>-99600993.11269976</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I543" t="n">
         <v>3.425</v>
       </c>
       <c r="J543" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -18625,13 +18635,13 @@
         <v>-99600993.11269976</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I544" t="n">
         <v>3.425</v>
       </c>
       <c r="J544" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -18666,13 +18676,13 @@
         <v>-101203858.6470998</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I545" t="n">
         <v>3.425</v>
       </c>
       <c r="J545" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -18707,11 +18717,13 @@
         <v>-101551699.2309998</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>3.424</v>
+      </c>
       <c r="J546" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K546" t="inlineStr">
         <is>
@@ -18746,11 +18758,13 @@
         <v>-101866114.8290998</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>3.423</v>
+      </c>
       <c r="J547" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
@@ -18785,11 +18799,13 @@
         <v>-101920681.8640998</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>3.42</v>
+      </c>
       <c r="J548" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
@@ -18824,13 +18840,13 @@
         <v>-101830845.3945456</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I549" t="n">
         <v>3.415</v>
       </c>
       <c r="J549" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -18865,11 +18881,13 @@
         <v>-101879905.6645456</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>3.438</v>
+      </c>
       <c r="J550" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
@@ -18904,11 +18922,13 @@
         <v>-101832847.8545455</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>3.419</v>
+      </c>
       <c r="J551" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K551" t="inlineStr">
         <is>
@@ -18943,13 +18963,13 @@
         <v>-101917952.4045455</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I552" t="n">
         <v>3.428</v>
       </c>
       <c r="J552" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
@@ -18984,11 +19004,13 @@
         <v>-101859380.4495455</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>3.41</v>
+      </c>
       <c r="J553" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
@@ -19023,11 +19045,13 @@
         <v>-101923459.1695455</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>3.424</v>
+      </c>
       <c r="J554" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
@@ -19062,13 +19086,13 @@
         <v>-101962006.5245456</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I555" t="n">
         <v>3.416</v>
       </c>
       <c r="J555" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
@@ -19103,13 +19127,13 @@
         <v>-101962006.5245456</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I556" t="n">
         <v>3.409</v>
       </c>
       <c r="J556" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K556" t="inlineStr">
         <is>
@@ -19144,13 +19168,13 @@
         <v>-102013569.8695455</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I557" t="n">
         <v>3.409</v>
       </c>
       <c r="J557" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -19185,13 +19209,13 @@
         <v>-101939979.4645455</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I558" t="n">
         <v>3.407</v>
       </c>
       <c r="J558" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -19226,13 +19250,13 @@
         <v>-101877402.5895455</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I559" t="n">
         <v>3.423</v>
       </c>
       <c r="J559" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -19267,13 +19291,13 @@
         <v>-101812322.6395455</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I560" t="n">
         <v>3.426</v>
       </c>
       <c r="J560" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -19308,11 +19332,13 @@
         <v>-101885412.4295456</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>3.436</v>
+      </c>
       <c r="J561" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -19347,11 +19373,13 @@
         <v>-101826339.8595456</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>3.415</v>
+      </c>
       <c r="J562" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
@@ -19386,11 +19414,13 @@
         <v>-101872396.4395456</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>3.433</v>
+      </c>
       <c r="J563" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
@@ -19425,11 +19455,13 @@
         <v>-101930467.7795456</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>3.432</v>
+      </c>
       <c r="J564" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
@@ -19464,11 +19496,13 @@
         <v>-101962507.1395456</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>3.43</v>
+      </c>
       <c r="J565" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K565" t="inlineStr">
         <is>
@@ -19503,11 +19537,13 @@
         <v>-101931469.0095456</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>3.419</v>
+      </c>
       <c r="J566" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K566" t="inlineStr">
         <is>
@@ -19542,11 +19578,13 @@
         <v>-101997169.9479456</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>3.42</v>
+      </c>
       <c r="J567" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K567" t="inlineStr">
         <is>
@@ -19581,13 +19619,13 @@
         <v>-101929039.3849456</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I568" t="n">
         <v>3.407</v>
       </c>
       <c r="J568" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K568" t="inlineStr">
         <is>
@@ -19622,13 +19660,13 @@
         <v>-101980102.1149456</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I569" t="n">
         <v>3.429</v>
       </c>
       <c r="J569" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
@@ -19663,11 +19701,13 @@
         <v>-102020151.3149456</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>3.424</v>
+      </c>
       <c r="J570" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
@@ -19702,13 +19742,13 @@
         <v>-101953569.5199456</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I571" t="n">
         <v>3.413</v>
       </c>
       <c r="J571" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
@@ -19743,13 +19783,13 @@
         <v>-101923032.0049456</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I572" t="n">
         <v>3.416</v>
       </c>
       <c r="J572" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K572" t="inlineStr">
         <is>
@@ -19784,11 +19824,13 @@
         <v>-101956573.2099456</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>3.417</v>
+      </c>
       <c r="J573" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K573" t="inlineStr">
         <is>
@@ -19823,11 +19865,13 @@
         <v>-101884985.2649456</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>3.41</v>
+      </c>
       <c r="J574" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K574" t="inlineStr">
         <is>
@@ -19862,11 +19906,13 @@
         <v>-101841932.3749456</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>3.411</v>
+      </c>
       <c r="J575" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
@@ -19901,11 +19947,13 @@
         <v>-101914020.9349456</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>3.423</v>
+      </c>
       <c r="J576" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
@@ -19940,11 +19988,13 @@
         <v>-101787365.3399456</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>3.416</v>
+      </c>
       <c r="J577" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K577" t="inlineStr">
         <is>
@@ -19979,11 +20029,13 @@
         <v>-101867463.7399456</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>3.429</v>
+      </c>
       <c r="J578" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K578" t="inlineStr">
         <is>
@@ -20018,11 +20070,13 @@
         <v>-101827915.1549456</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>3.416</v>
+      </c>
       <c r="J579" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K579" t="inlineStr">
         <is>
@@ -20057,11 +20111,13 @@
         <v>-101896499.4099456</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>3.428</v>
+      </c>
       <c r="J580" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K580" t="inlineStr">
         <is>
@@ -20096,11 +20152,13 @@
         <v>-101836033.6849456</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>3.417</v>
+      </c>
       <c r="J581" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K581" t="inlineStr">
         <is>
@@ -20139,7 +20197,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K582" t="inlineStr">
         <is>
@@ -20174,11 +20232,13 @@
         <v>-101839537.9899456</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>3.415</v>
+      </c>
       <c r="J583" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K583" t="inlineStr">
         <is>
@@ -20213,11 +20273,13 @@
         <v>-101838745.0159456</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>3.418</v>
+      </c>
       <c r="J584" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K584" t="inlineStr">
         <is>
@@ -20256,7 +20318,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
@@ -20295,7 +20357,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -20334,7 +20396,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K587" t="inlineStr">
         <is>
@@ -20373,7 +20435,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K588" t="inlineStr">
         <is>
@@ -20412,7 +20474,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K589" t="inlineStr">
         <is>
@@ -20451,7 +20513,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
@@ -20490,7 +20552,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K591" t="inlineStr">
         <is>
@@ -20529,7 +20591,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K592" t="inlineStr">
         <is>
@@ -20564,11 +20626,13 @@
         <v>-101753187.9099456</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>3.423</v>
+      </c>
       <c r="J593" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K593" t="inlineStr">
         <is>
@@ -20607,7 +20671,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K594" t="inlineStr">
         <is>
@@ -20646,7 +20710,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K595" t="inlineStr">
         <is>
@@ -20685,7 +20749,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K596" t="inlineStr">
         <is>
@@ -20724,7 +20788,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K597" t="inlineStr">
         <is>
@@ -20763,7 +20827,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K598" t="inlineStr">
         <is>
@@ -20802,7 +20866,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K599" t="inlineStr">
         <is>
@@ -20841,7 +20905,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K600" t="inlineStr">
         <is>
@@ -20880,7 +20944,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K601" t="inlineStr">
         <is>
@@ -20919,7 +20983,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K602" t="inlineStr">
         <is>
@@ -20958,7 +21022,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K603" t="inlineStr">
         <is>
@@ -20997,7 +21061,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K604" t="inlineStr">
         <is>
@@ -21036,7 +21100,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K605" t="inlineStr">
         <is>
@@ -21075,7 +21139,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K606" t="inlineStr">
         <is>
@@ -21114,7 +21178,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K607" t="inlineStr">
         <is>
@@ -21153,7 +21217,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K608" t="inlineStr">
         <is>
@@ -21192,7 +21256,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K609" t="inlineStr">
         <is>
@@ -21231,7 +21295,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K610" t="inlineStr">
         <is>
@@ -21270,7 +21334,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K611" t="inlineStr">
         <is>
@@ -21309,7 +21373,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K612" t="inlineStr">
         <is>
@@ -21348,7 +21412,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K613" t="inlineStr">
         <is>
@@ -21387,7 +21451,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K614" t="inlineStr">
         <is>
@@ -21426,7 +21490,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K615" t="inlineStr">
         <is>
@@ -21465,7 +21529,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K616" t="inlineStr">
         <is>
@@ -21504,7 +21568,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K617" t="inlineStr">
         <is>
@@ -21543,7 +21607,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K618" t="inlineStr">
         <is>
@@ -21582,7 +21646,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K619" t="inlineStr">
         <is>
@@ -21621,7 +21685,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K620" t="inlineStr">
         <is>
@@ -21660,7 +21724,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K621" t="inlineStr">
         <is>
@@ -21699,7 +21763,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K622" t="inlineStr">
         <is>
@@ -21738,7 +21802,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K623" t="inlineStr">
         <is>
@@ -21777,7 +21841,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K624" t="inlineStr">
         <is>
@@ -21816,7 +21880,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K625" t="inlineStr">
         <is>
@@ -21855,7 +21919,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K626" t="inlineStr">
         <is>
@@ -21894,7 +21958,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K627" t="inlineStr">
         <is>
@@ -21933,7 +21997,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K628" t="inlineStr">
         <is>
@@ -21972,7 +22036,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K629" t="inlineStr">
         <is>
@@ -22011,7 +22075,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -22050,7 +22114,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -22089,7 +22153,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K632" t="inlineStr">
         <is>
@@ -22128,7 +22192,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K633" t="inlineStr">
         <is>
@@ -22167,7 +22231,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K634" t="inlineStr">
         <is>
@@ -22206,7 +22270,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K635" t="inlineStr">
         <is>
@@ -22245,7 +22309,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
@@ -22284,7 +22348,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K637" t="inlineStr">
         <is>
@@ -22323,7 +22387,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K638" t="inlineStr">
         <is>
@@ -22362,7 +22426,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K639" t="inlineStr">
         <is>
@@ -22401,7 +22465,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K640" t="inlineStr">
         <is>
@@ -22440,7 +22504,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K641" t="inlineStr">
         <is>
@@ -22479,7 +22543,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
@@ -22518,7 +22582,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
@@ -22557,7 +22621,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K644" t="inlineStr">
         <is>
@@ -22596,7 +22660,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K645" t="inlineStr">
         <is>
@@ -22635,7 +22699,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K646" t="inlineStr">
         <is>
@@ -22674,7 +22738,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K647" t="inlineStr">
         <is>
@@ -22713,7 +22777,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
@@ -22752,7 +22816,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
@@ -22791,7 +22855,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K650" t="inlineStr">
         <is>
@@ -22830,7 +22894,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
@@ -22869,7 +22933,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
@@ -22908,7 +22972,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K653" t="inlineStr">
         <is>
@@ -22947,7 +23011,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
@@ -22986,7 +23050,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
@@ -23025,7 +23089,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
@@ -23064,7 +23128,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
@@ -23103,7 +23167,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K658" t="inlineStr">
         <is>
@@ -23142,7 +23206,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
@@ -23181,7 +23245,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K660" t="inlineStr">
         <is>
@@ -23220,7 +23284,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K661" t="inlineStr">
         <is>
@@ -23259,7 +23323,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K662" t="inlineStr">
         <is>
@@ -23298,7 +23362,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
@@ -23337,7 +23401,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K664" t="inlineStr">
         <is>
@@ -23376,7 +23440,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K665" t="inlineStr">
         <is>
@@ -23415,7 +23479,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K666" t="inlineStr">
         <is>
@@ -23454,7 +23518,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K667" t="inlineStr">
         <is>
@@ -23493,7 +23557,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K668" t="inlineStr">
         <is>
@@ -23532,7 +23596,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K669" t="inlineStr">
         <is>
@@ -23571,7 +23635,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K670" t="inlineStr">
         <is>
@@ -23610,7 +23674,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K671" t="inlineStr">
         <is>
@@ -23649,7 +23713,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K672" t="inlineStr">
         <is>
@@ -23688,7 +23752,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K673" t="inlineStr">
         <is>
@@ -23727,7 +23791,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K674" t="inlineStr">
         <is>
@@ -23766,7 +23830,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K675" t="inlineStr">
         <is>
@@ -23805,7 +23869,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K676" t="inlineStr">
         <is>
@@ -23844,7 +23908,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K677" t="inlineStr">
         <is>
@@ -23883,7 +23947,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K678" t="inlineStr">
         <is>
@@ -23922,7 +23986,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K679" t="inlineStr">
         <is>
@@ -23961,7 +24025,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K680" t="inlineStr">
         <is>
@@ -24000,7 +24064,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K681" t="inlineStr">
         <is>
@@ -24039,7 +24103,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K682" t="inlineStr">
         <is>
@@ -24078,7 +24142,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K683" t="inlineStr">
         <is>
@@ -24117,7 +24181,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K684" t="inlineStr">
         <is>
@@ -24156,7 +24220,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K685" t="inlineStr">
         <is>
@@ -24195,7 +24259,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K686" t="inlineStr">
         <is>
@@ -24234,7 +24298,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K687" t="inlineStr">
         <is>
@@ -24273,7 +24337,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K688" t="inlineStr">
         <is>
@@ -24312,7 +24376,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K689" t="inlineStr">
         <is>
@@ -24351,7 +24415,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K690" t="inlineStr">
         <is>
@@ -24390,7 +24454,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K691" t="inlineStr">
         <is>
@@ -24429,7 +24493,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K692" t="inlineStr">
         <is>
@@ -24468,7 +24532,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K693" t="inlineStr">
         <is>
@@ -24507,7 +24571,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K694" t="inlineStr">
         <is>
@@ -24546,7 +24610,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K695" t="inlineStr">
         <is>
@@ -24585,7 +24649,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K696" t="inlineStr">
         <is>
@@ -24624,7 +24688,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K697" t="inlineStr">
         <is>
@@ -24663,7 +24727,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K698" t="inlineStr">
         <is>
@@ -24702,7 +24766,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K699" t="inlineStr">
         <is>
@@ -24741,7 +24805,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K700" t="inlineStr">
         <is>
@@ -24780,7 +24844,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K701" t="inlineStr">
         <is>
@@ -24819,7 +24883,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K702" t="inlineStr">
         <is>
@@ -24858,7 +24922,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K703" t="inlineStr">
         <is>
@@ -24897,7 +24961,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K704" t="inlineStr">
         <is>
@@ -24936,7 +25000,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K705" t="inlineStr">
         <is>
@@ -24975,7 +25039,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K706" t="inlineStr">
         <is>
@@ -25014,7 +25078,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K707" t="inlineStr">
         <is>
@@ -25053,7 +25117,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K708" t="inlineStr">
         <is>
@@ -25092,7 +25156,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K709" t="inlineStr">
         <is>
@@ -25131,7 +25195,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K710" t="inlineStr">
         <is>
@@ -25170,7 +25234,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K711" t="inlineStr">
         <is>
@@ -25209,7 +25273,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K712" t="inlineStr">
         <is>
@@ -25248,7 +25312,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K713" t="inlineStr">
         <is>
@@ -25287,7 +25351,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K714" t="inlineStr">
         <is>
@@ -25326,7 +25390,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K715" t="inlineStr">
         <is>
@@ -25365,7 +25429,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K716" t="inlineStr">
         <is>
@@ -25404,7 +25468,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K717" t="inlineStr">
         <is>
@@ -25443,7 +25507,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K718" t="inlineStr">
         <is>
@@ -25482,7 +25546,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K719" t="inlineStr">
         <is>
@@ -25521,7 +25585,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K720" t="inlineStr">
         <is>
@@ -25560,7 +25624,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K721" t="inlineStr">
         <is>
@@ -25599,7 +25663,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K722" t="inlineStr">
         <is>
@@ -25638,7 +25702,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K723" t="inlineStr">
         <is>
@@ -25677,7 +25741,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K724" t="inlineStr">
         <is>
@@ -25716,7 +25780,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K725" t="inlineStr">
         <is>
@@ -25755,7 +25819,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K726" t="inlineStr">
         <is>
@@ -25794,7 +25858,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K727" t="inlineStr">
         <is>
@@ -25833,7 +25897,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K728" t="inlineStr">
         <is>
@@ -25872,7 +25936,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K729" t="inlineStr">
         <is>
@@ -25911,7 +25975,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K730" t="inlineStr">
         <is>
@@ -25950,7 +26014,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K731" t="inlineStr">
         <is>
@@ -25989,7 +26053,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K732" t="inlineStr">
         <is>
@@ -26028,7 +26092,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K733" t="inlineStr">
         <is>
@@ -26067,7 +26131,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K734" t="inlineStr">
         <is>
@@ -26106,7 +26170,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K735" t="inlineStr">
         <is>
@@ -26145,7 +26209,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K736" t="inlineStr">
         <is>
@@ -26180,13 +26244,11 @@
         <v>-101429055.9425531</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
-      </c>
-      <c r="I737" t="n">
-        <v>3.437</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I737" t="inlineStr"/>
       <c r="J737" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K737" t="inlineStr">
         <is>
@@ -26225,7 +26287,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K738" t="inlineStr">
         <is>
@@ -26264,7 +26326,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K739" t="inlineStr">
         <is>
@@ -26303,7 +26365,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K740" t="inlineStr">
         <is>
@@ -26342,7 +26404,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K741" t="inlineStr">
         <is>
@@ -26381,7 +26443,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K742" t="inlineStr">
         <is>
@@ -26420,7 +26482,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K743" t="inlineStr">
         <is>
@@ -26459,7 +26521,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K744" t="inlineStr">
         <is>
@@ -26498,7 +26560,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K745" t="inlineStr">
         <is>
@@ -26537,7 +26599,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K746" t="inlineStr">
         <is>
@@ -26576,7 +26638,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K747" t="inlineStr">
         <is>
@@ -26615,7 +26677,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K748" t="inlineStr">
         <is>
@@ -26654,7 +26716,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K749" t="inlineStr">
         <is>
@@ -26693,7 +26755,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K750" t="inlineStr">
         <is>
@@ -26728,11 +26790,11 @@
         <v>-101174457.6285531</v>
       </c>
       <c r="H751" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K751" t="inlineStr">
         <is>
@@ -26771,7 +26833,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K752" t="inlineStr">
         <is>
@@ -26810,7 +26872,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K753" t="inlineStr">
         <is>
@@ -26849,7 +26911,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K754" t="inlineStr">
         <is>
@@ -26888,7 +26950,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K755" t="inlineStr">
         <is>
@@ -26923,13 +26985,11 @@
         <v>-101505326.2554531</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
-      </c>
-      <c r="I756" t="n">
-        <v>3.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I756" t="inlineStr"/>
       <c r="J756" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K756" t="inlineStr">
         <is>
@@ -26964,13 +27024,11 @@
         <v>-101459269.6754531</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
-      </c>
-      <c r="I757" t="n">
-        <v>3.431</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I757" t="inlineStr"/>
       <c r="J757" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K757" t="inlineStr">
         <is>
@@ -27005,13 +27063,11 @@
         <v>-101401198.3354531</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
-      </c>
-      <c r="I758" t="n">
-        <v>3.443</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I758" t="inlineStr"/>
       <c r="J758" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K758" t="inlineStr">
         <is>
@@ -27046,13 +27102,11 @@
         <v>-101433237.6954531</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
-      </c>
-      <c r="I759" t="n">
-        <v>3.446</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I759" t="inlineStr"/>
       <c r="J759" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K759" t="inlineStr">
         <is>
@@ -27087,13 +27141,11 @@
         <v>-101464275.8254531</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
-      </c>
-      <c r="I760" t="n">
-        <v>3.441</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I760" t="inlineStr"/>
       <c r="J760" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K760" t="inlineStr">
         <is>
@@ -27128,13 +27180,11 @@
         <v>-101519343.4754531</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
-      </c>
-      <c r="I761" t="n">
-        <v>3.435</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I761" t="inlineStr"/>
       <c r="J761" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K761" t="inlineStr">
         <is>
@@ -27169,13 +27219,11 @@
         <v>-101451760.4504531</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
-      </c>
-      <c r="I762" t="n">
-        <v>3.433</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I762" t="inlineStr"/>
       <c r="J762" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K762" t="inlineStr">
         <is>
@@ -27210,13 +27258,11 @@
         <v>-101458885.4503531</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
-      </c>
-      <c r="I763" t="n">
-        <v>3.438</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I763" t="inlineStr"/>
       <c r="J763" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K763" t="inlineStr">
         <is>
@@ -27255,7 +27301,7 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K764" t="inlineStr">
         <is>
@@ -27294,7 +27340,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K765" t="inlineStr">
         <is>
@@ -27333,7 +27379,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K766" t="inlineStr">
         <is>
@@ -27372,7 +27418,7 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K767" t="inlineStr">
         <is>
@@ -27411,7 +27457,7 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K768" t="inlineStr">
         <is>
@@ -27450,7 +27496,7 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K769" t="inlineStr">
         <is>
@@ -27489,7 +27535,7 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K770" t="inlineStr">
         <is>
@@ -27528,7 +27574,7 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K771" t="inlineStr">
         <is>
@@ -27567,7 +27613,7 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K772" t="inlineStr">
         <is>
@@ -27606,7 +27652,7 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K773" t="inlineStr">
         <is>
@@ -27645,7 +27691,7 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K774" t="inlineStr">
         <is>
@@ -27684,7 +27730,7 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K775" t="inlineStr">
         <is>
@@ -27723,7 +27769,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K776" t="inlineStr">
         <is>
@@ -27762,7 +27808,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K777" t="inlineStr">
         <is>
@@ -27801,7 +27847,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K778" t="inlineStr">
         <is>
@@ -27840,7 +27886,7 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K779" t="inlineStr">
         <is>
@@ -27879,7 +27925,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K780" t="inlineStr">
         <is>
@@ -27918,7 +27964,7 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K781" t="inlineStr">
         <is>
@@ -27957,7 +28003,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K782" t="inlineStr">
         <is>
@@ -27996,7 +28042,7 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K783" t="inlineStr">
         <is>
@@ -28035,7 +28081,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K784" t="inlineStr">
         <is>
@@ -28074,7 +28120,7 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K785" t="inlineStr">
         <is>
@@ -28113,7 +28159,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K786" t="inlineStr">
         <is>
@@ -28152,7 +28198,7 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K787" t="inlineStr">
         <is>
@@ -28191,7 +28237,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K788" t="inlineStr">
         <is>
@@ -28230,7 +28276,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K789" t="inlineStr">
         <is>
@@ -28269,7 +28315,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K790" t="inlineStr">
         <is>
@@ -28308,7 +28354,7 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K791" t="inlineStr">
         <is>
@@ -28347,7 +28393,7 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K792" t="inlineStr">
         <is>
@@ -28386,7 +28432,7 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K793" t="inlineStr">
         <is>
@@ -28425,7 +28471,7 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K794" t="inlineStr">
         <is>
@@ -28464,7 +28510,7 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K795" t="inlineStr">
         <is>
@@ -28503,7 +28549,7 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K796" t="inlineStr">
         <is>
@@ -28542,7 +28588,7 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K797" t="inlineStr">
         <is>
@@ -28581,7 +28627,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K798" t="inlineStr">
         <is>
@@ -28620,7 +28666,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K799" t="inlineStr">
         <is>
@@ -28659,7 +28705,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K800" t="inlineStr">
         <is>
@@ -28698,7 +28744,7 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K801" t="inlineStr">
         <is>
@@ -28737,7 +28783,7 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K802" t="inlineStr">
         <is>
@@ -28776,7 +28822,7 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K803" t="inlineStr">
         <is>
@@ -28815,7 +28861,7 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K804" t="inlineStr">
         <is>
@@ -28854,7 +28900,7 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K805" t="inlineStr">
         <is>
@@ -28893,7 +28939,7 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K806" t="inlineStr">
         <is>
@@ -28932,7 +28978,7 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K807" t="inlineStr">
         <is>
@@ -28971,7 +29017,7 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K808" t="inlineStr">
         <is>
@@ -29010,7 +29056,7 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K809" t="inlineStr">
         <is>
@@ -29049,7 +29095,7 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K810" t="inlineStr">
         <is>
@@ -29088,7 +29134,7 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K811" t="inlineStr">
         <is>
@@ -29127,7 +29173,7 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K812" t="inlineStr">
         <is>
@@ -29166,7 +29212,7 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K813" t="inlineStr">
         <is>
@@ -29205,7 +29251,7 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K814" t="inlineStr">
         <is>
@@ -29244,7 +29290,7 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K815" t="inlineStr">
         <is>
@@ -29283,7 +29329,7 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K816" t="inlineStr">
         <is>
@@ -29322,7 +29368,7 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K817" t="inlineStr">
         <is>
@@ -29361,7 +29407,7 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K818" t="inlineStr">
         <is>
@@ -29400,7 +29446,7 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K819" t="inlineStr">
         <is>
@@ -29439,7 +29485,7 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K820" t="inlineStr">
         <is>
@@ -29478,7 +29524,7 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K821" t="inlineStr">
         <is>
@@ -29517,7 +29563,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K822" t="inlineStr">
         <is>
@@ -29556,7 +29602,7 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K823" t="inlineStr">
         <is>
@@ -29595,7 +29641,7 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K824" t="inlineStr">
         <is>
@@ -29634,7 +29680,7 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K825" t="inlineStr">
         <is>
@@ -29673,7 +29719,7 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K826" t="inlineStr">
         <is>
@@ -29712,7 +29758,7 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K827" t="inlineStr">
         <is>
@@ -29751,7 +29797,7 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K828" t="inlineStr">
         <is>
@@ -29790,7 +29836,7 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K829" t="inlineStr">
         <is>
@@ -29829,7 +29875,7 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K830" t="inlineStr">
         <is>
@@ -29868,7 +29914,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K831" t="inlineStr">
         <is>
@@ -29907,7 +29953,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K832" t="inlineStr">
         <is>
@@ -29946,7 +29992,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K833" t="inlineStr">
         <is>
@@ -29985,7 +30031,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K834" t="inlineStr">
         <is>
@@ -30024,7 +30070,7 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K835" t="inlineStr">
         <is>
@@ -30063,7 +30109,7 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K836" t="inlineStr">
         <is>
@@ -30102,7 +30148,7 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K837" t="inlineStr">
         <is>
@@ -30141,7 +30187,7 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K838" t="inlineStr">
         <is>
@@ -30180,7 +30226,7 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K839" t="inlineStr">
         <is>
@@ -30219,7 +30265,7 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K840" t="inlineStr">
         <is>
@@ -30258,7 +30304,7 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K841" t="inlineStr">
         <is>
@@ -30297,7 +30343,7 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K842" t="inlineStr">
         <is>
@@ -30336,7 +30382,7 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K843" t="inlineStr">
         <is>
@@ -30375,7 +30421,7 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K844" t="inlineStr">
         <is>
@@ -30414,7 +30460,7 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K845" t="inlineStr">
         <is>
@@ -30453,7 +30499,7 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K846" t="inlineStr">
         <is>
@@ -30492,7 +30538,7 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K847" t="inlineStr">
         <is>
@@ -30531,7 +30577,7 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K848" t="inlineStr">
         <is>
@@ -30570,7 +30616,7 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K849" t="inlineStr">
         <is>
@@ -30609,7 +30655,7 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K850" t="inlineStr">
         <is>
@@ -30648,7 +30694,7 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K851" t="inlineStr">
         <is>
@@ -30687,7 +30733,7 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K852" t="inlineStr">
         <is>
@@ -30726,7 +30772,7 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K853" t="inlineStr">
         <is>
@@ -30765,7 +30811,7 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K854" t="inlineStr">
         <is>
@@ -30804,7 +30850,7 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K855" t="inlineStr">
         <is>
@@ -30843,7 +30889,7 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K856" t="inlineStr">
         <is>
@@ -30882,7 +30928,7 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K857" t="inlineStr">
         <is>
@@ -30921,7 +30967,7 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K858" t="inlineStr">
         <is>
@@ -30960,7 +31006,7 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K859" t="inlineStr">
         <is>
@@ -30999,7 +31045,7 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K860" t="inlineStr">
         <is>
@@ -31038,7 +31084,7 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K861" t="inlineStr">
         <is>
@@ -31077,7 +31123,7 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K862" t="inlineStr">
         <is>
@@ -31116,7 +31162,7 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K863" t="inlineStr">
         <is>
@@ -31155,7 +31201,7 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K864" t="inlineStr">
         <is>
@@ -31194,7 +31240,7 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K865" t="inlineStr">
         <is>
@@ -31233,7 +31279,7 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K866" t="inlineStr">
         <is>
@@ -31272,7 +31318,7 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K867" t="inlineStr">
         <is>
@@ -31311,7 +31357,7 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K868" t="inlineStr">
         <is>
@@ -31350,7 +31396,7 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K869" t="inlineStr">
         <is>
@@ -31389,7 +31435,7 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K870" t="inlineStr">
         <is>
@@ -31428,7 +31474,7 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K871" t="inlineStr">
         <is>
@@ -31467,7 +31513,7 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K872" t="inlineStr">
         <is>
@@ -31506,7 +31552,7 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K873" t="inlineStr">
         <is>
@@ -31545,7 +31591,7 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K874" t="inlineStr">
         <is>
@@ -31584,7 +31630,7 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K875" t="inlineStr">
         <is>
@@ -31623,7 +31669,7 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K876" t="inlineStr">
         <is>
@@ -31662,7 +31708,7 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K877" t="inlineStr">
         <is>
@@ -31701,7 +31747,7 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K878" t="inlineStr">
         <is>
@@ -31740,7 +31786,7 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K879" t="inlineStr">
         <is>
@@ -31779,7 +31825,7 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K880" t="inlineStr">
         <is>
@@ -31818,7 +31864,7 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K881" t="inlineStr">
         <is>
@@ -31857,7 +31903,7 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K882" t="inlineStr">
         <is>
@@ -31896,7 +31942,7 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K883" t="inlineStr">
         <is>
@@ -31935,7 +31981,7 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K884" t="inlineStr">
         <is>
@@ -31974,7 +32020,7 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K885" t="inlineStr">
         <is>
@@ -32013,7 +32059,7 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K886" t="inlineStr">
         <is>
@@ -32052,7 +32098,7 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K887" t="inlineStr">
         <is>
@@ -32091,7 +32137,7 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K888" t="inlineStr">
         <is>
@@ -32130,7 +32176,7 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K889" t="inlineStr">
         <is>
@@ -32169,7 +32215,7 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K890" t="inlineStr">
         <is>
@@ -32208,7 +32254,7 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K891" t="inlineStr">
         <is>
@@ -32247,7 +32293,7 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K892" t="inlineStr">
         <is>
@@ -32286,7 +32332,7 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K893" t="inlineStr">
         <is>
@@ -32325,7 +32371,7 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K894" t="inlineStr">
         <is>
@@ -32364,7 +32410,7 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K895" t="inlineStr">
         <is>
@@ -32403,7 +32449,7 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K896" t="inlineStr">
         <is>
@@ -32442,7 +32488,7 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K897" t="inlineStr">
         <is>
@@ -32481,7 +32527,7 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K898" t="inlineStr">
         <is>
@@ -32520,7 +32566,7 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K899" t="inlineStr">
         <is>
@@ -32559,7 +32605,7 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K900" t="inlineStr">
         <is>
@@ -32598,7 +32644,7 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K901" t="inlineStr">
         <is>
@@ -32637,7 +32683,7 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K902" t="inlineStr">
         <is>
@@ -32676,7 +32722,7 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K903" t="inlineStr">
         <is>
@@ -32715,7 +32761,7 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K904" t="inlineStr">
         <is>
@@ -32754,7 +32800,7 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K905" t="inlineStr">
         <is>
@@ -32793,7 +32839,7 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K906" t="inlineStr">
         <is>
@@ -32832,7 +32878,7 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K907" t="inlineStr">
         <is>
@@ -32871,7 +32917,7 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K908" t="inlineStr">
         <is>
@@ -32910,7 +32956,7 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K909" t="inlineStr">
         <is>
@@ -32949,7 +32995,7 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K910" t="inlineStr">
         <is>
@@ -32988,7 +33034,7 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K911" t="inlineStr">
         <is>
@@ -33027,7 +33073,7 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K912" t="inlineStr">
         <is>
@@ -33066,7 +33112,7 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K913" t="inlineStr">
         <is>
@@ -33105,7 +33151,7 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K914" t="inlineStr">
         <is>
@@ -33144,7 +33190,7 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K915" t="inlineStr">
         <is>
@@ -33183,7 +33229,7 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K916" t="inlineStr">
         <is>
@@ -33222,7 +33268,7 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K917" t="inlineStr">
         <is>
@@ -33261,7 +33307,7 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K918" t="inlineStr">
         <is>
@@ -33300,7 +33346,7 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K919" t="inlineStr">
         <is>
@@ -33339,7 +33385,7 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K920" t="inlineStr">
         <is>
@@ -33378,7 +33424,7 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K921" t="inlineStr">
         <is>
@@ -33417,7 +33463,7 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K922" t="inlineStr">
         <is>
@@ -33456,7 +33502,7 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K923" t="inlineStr">
         <is>
@@ -33495,7 +33541,7 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K924" t="inlineStr">
         <is>
@@ -33534,7 +33580,7 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K925" t="inlineStr">
         <is>
@@ -33573,7 +33619,7 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K926" t="inlineStr">
         <is>
@@ -33612,7 +33658,7 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K927" t="inlineStr">
         <is>
@@ -33651,7 +33697,7 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K928" t="inlineStr">
         <is>
@@ -33690,7 +33736,7 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K929" t="inlineStr">
         <is>
@@ -33729,7 +33775,7 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K930" t="inlineStr">
         <is>
@@ -33768,7 +33814,7 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K931" t="inlineStr">
         <is>
@@ -33807,7 +33853,7 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K932" t="inlineStr">
         <is>
@@ -33846,7 +33892,7 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K933" t="inlineStr">
         <is>
@@ -33885,7 +33931,7 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K934" t="inlineStr">
         <is>
@@ -33924,7 +33970,7 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K935" t="inlineStr">
         <is>
@@ -33963,7 +34009,7 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K936" t="inlineStr">
         <is>
@@ -34002,7 +34048,7 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="n">
-        <v>3.425</v>
+        <v>3.426</v>
       </c>
       <c r="K937" t="inlineStr">
         <is>
@@ -34015,6 +34061,6 @@
       <c r="M937" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest CON.xlsx
+++ b/BackTest/2020-01-15 BackTest CON.xlsx
@@ -451,7 +451,7 @@
         <v>-2075985.2774</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-2121541.2424</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-2065472.3624</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-2116034.477400001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1984372.732400001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-2016912.707400001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-2016912.707400001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1888254.652400001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1888254.652400001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1938552.442400001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1896500.782400001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1896500.782400001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1826915.297400001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1826915.297400001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1876976.797400001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1838930.057400001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1909016.157400001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1829418.372400001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1767842.727400001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1767842.727400001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1806890.697400001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1735803.367400001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1792372.862400001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1792372.862400001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1751823.047400001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1680235.102400001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1723780.597400001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1688236.932400001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1724781.827400001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1681228.322400001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1751815.037400001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1751815.037400001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1715770.757400001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1791363.622400001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1722278.752400001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-1722278.752400001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1766833.487400001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1712266.452400001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1772340.252400001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1772340.252400001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1725282.442400001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1687736.317400001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1735294.742400001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1676722.787400001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1740801.507400001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1740801.507400001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1817896.217400001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1766332.872400001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-1839923.277400001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1777346.402400001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-1842426.352400001</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-1915516.142400001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-1974588.712400001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1870460.792400001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1902500.152400001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-1902500.152400001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-1847432.502400002</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-1915015.527400001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-1915015.527400001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-1874141.313400001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-1874141.313400001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1904678.828400001</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1904678.828400001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1870136.393400001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-1907181.903400001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1864129.013400001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1792040.453400001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1919537.081400001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1839438.681400002</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1878987.266400001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1810403.011400002</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1867973.736400002</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1822918.386400002</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1864469.431400002</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1811904.856400002</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1811904.856400002</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-1845946.676400002</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-1742819.986400002</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-1698765.866400002</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-1759340.281400002</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1685249.261400002</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1685249.261400002</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-1731806.456400002</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-1670731.426400002</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-1778363.651400002</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-1853455.901400002</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-1786373.491400002</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-1721794.156400002</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-1836935.606400002</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-1783870.416400002</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-1783242.096400002</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-1921912.451400002</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-1975978.871400002</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-1930422.906400002</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-1986491.786400001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-1935929.671400002</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-2014025.611400001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-1960459.806400002</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-1927919.831400001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-1864341.726400001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-1927419.216400001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-1927419.216400001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-1875355.256400001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-1825794.371400001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-1867846.031400001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-1791251.936400001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-1721289.989400001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-1769849.644400002</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-1802890.234400002</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-1752828.734400002</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-1790875.474400002</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-1720789.374400001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-1800387.159400001</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-1659714.344400001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-1698762.314400001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-1627674.984400001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-1571105.489400001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-1570336.544400001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-1611386.974400001</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-1570837.159400001</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-1642425.104400001</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-1675379.983500001</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-1632827.708500001</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-1597284.043500001</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-1677382.443500001</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-1606795.728500001</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-1663865.838500001</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-1627821.558500001</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-1627821.558500001</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-1696906.428500001</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-1774501.753500001</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-1729947.018500001</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-1784514.053500001</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-1784514.053500001</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-1735453.783500001</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-1735453.783500001</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-1697907.658500001</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-1745466.083500001</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-1744833.306500001</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-1803405.261500001</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-1739326.541500001</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-1777873.896500001</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-1777873.896500001</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-1726310.551500001</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-1799900.956500001</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-1737324.081500001</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-1802404.031500001</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-1729314.241500001</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-1788386.811500001</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-1788386.811500001</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-1730315.471500001</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1762354.831500001</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-1793392.961500001</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-1738325.311500001</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-1805908.336500001</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-1754845.606500001</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-1794894.806500001</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-1727792.371500001</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-1758329.886500001</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-1791871.091500001</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-1757328.656500001</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-1794374.166500001</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-1679232.716500001</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-1679232.716500001</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-1600636.161500001</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-2841067.185600001</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-2841067.185600001</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-2841691.953600002</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-2773107.698600002</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-2715536.973600002</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-2760592.323600002</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-2719041.278600002</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-2771605.853600002</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-2675487.773600002</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-2675487.773600002</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-2710530.823600002</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-2710146.351600002</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-2754200.471600002</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-2693626.056600002</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-2693626.056600002</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-2768217.691600001</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-2721660.496600002</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-2782735.526600001</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-2706642.046600001</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-2738180.791600002</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-2738180.791600002</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-2671098.381600001</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-2606519.046600001</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-2662087.311600002</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-2602514.126600001</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-2602514.126600001</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-2675103.301600001</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-2609022.121600001</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-2609022.121600001</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-2562480.946600001</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-2669111.941600001</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-2747207.881600001</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-2693642.076600001</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-2693642.076600001</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-2693642.076600001</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-2759222.641600001</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-2592627.312900001</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-2942774.293200001</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-2984825.953200001</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-2908231.858200001</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-2838646.373200001</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-2887206.028200001</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-2854165.438200001</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-2766057.198200001</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-2766057.198200001</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-2845654.983200001</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-2907763.374200001</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-2986860.544200001</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-2947812.574200001</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-3018899.904200001</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-2962330.409200001</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-3003380.839200001</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-2962831.024200001</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-2962831.024200001</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-2920278.749200001</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-2955822.414200001</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-2992367.309200001</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-3035920.814200001</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-3035023.712200001</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-3105610.427200001</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-3048540.317200001</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-3048540.317200001</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-3124133.182200001</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-3055048.312200001</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-3132643.637200001</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-3132643.637200001</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-3072569.837200001</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-3121630.107200001</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-3074572.297200001</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-3075136.992200001</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-3037590.867200001</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-2990032.442200001</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-2867381.767200002</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-2867381.767200002</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-2944476.477200001</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-2892913.132200001</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-2756337.350200001</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-2821417.300200001</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-2953579.660200001</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-2907523.080200001</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-2907523.080200001</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-2875483.720200001</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-2906521.850200001</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-2906521.850200001</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-2906521.850200001</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-2906521.850200001</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-2866472.650200001</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-2933054.445200001</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-2963591.960200001</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-2997133.165200001</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-2962590.730200001</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-2962590.730200001</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-2962590.730200001</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-2962590.730200001</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-2962590.730200001</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-2962590.730200001</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-2962590.730200001</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-2962590.730200001</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-3031174.985200001</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-2973604.260200001</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-2974217.196200001</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-2929161.846200001</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-2929161.846200001</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-2867085.586200001</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-2969211.046200001</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-2969211.046200001</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-2925156.926200001</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-2925156.926200001</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-2999247.946200001</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-2999247.946200001</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-2891615.721200001</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-2967709.201200001</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-2967709.201200001</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-2892616.951200001</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-3024278.696200001</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-2968710.431200001</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-3028283.616200001</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-2975218.426200001</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-2975218.426200001</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-2975218.426200001</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-3029284.846200001</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-2983728.881200001</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-2983728.881200001</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-2984020.128300001</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-2984520.128300001</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-2984520.128300001</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-2798833.230000001</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-2913364.598700001</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-2913364.598700001</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-3313861.692500001</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-3313861.692500001</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-3313861.692500001</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-3313861.692500001</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-3313861.692500001</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-3313861.692500001</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-3313861.692500001</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-3947343.809500001</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-3979883.784500001</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-3979883.784500001</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-4279883.784500001</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-4151225.729500001</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-4069920.146200001</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-4119481.031200001</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-4077429.3712</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-4223608.9512</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-4538647.6515</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-4538647.6515</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-4486583.691500001</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-4565680.861500001</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-4494593.531500001</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-4576193.776500001</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -17149,14 +17149,10 @@
         <v>-99889732.05270208</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
-      </c>
-      <c r="I508" t="n">
-        <v>3.424</v>
-      </c>
-      <c r="J508" t="n">
-        <v>3.424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
@@ -17186,19 +17182,11 @@
         <v>-99839169.93770209</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
-      </c>
-      <c r="I509" t="n">
-        <v>3.425</v>
-      </c>
-      <c r="J509" t="n">
-        <v>3.424</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17230,14 +17218,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>3.424</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18520,10 +18502,14 @@
         <v>-101830845.3945456</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>3.415</v>
+      </c>
+      <c r="J549" t="n">
+        <v>3.415</v>
+      </c>
       <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
@@ -18556,8 +18542,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>3.415</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18589,8 +18581,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>3.415</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18718,14 +18716,10 @@
         <v>-101962006.5245456</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
-      </c>
-      <c r="I555" t="n">
-        <v>3.416</v>
-      </c>
-      <c r="J555" t="n">
-        <v>3.416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
@@ -18761,13 +18755,9 @@
         <v>3.409</v>
       </c>
       <c r="J556" t="n">
-        <v>3.416</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>3.409</v>
+      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18802,7 +18792,7 @@
         <v>3.409</v>
       </c>
       <c r="J557" t="n">
-        <v>3.416</v>
+        <v>3.409</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -18843,9 +18833,13 @@
         <v>3.407</v>
       </c>
       <c r="J558" t="n">
-        <v>3.407</v>
-      </c>
-      <c r="K558" t="inlineStr"/>
+        <v>3.409</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18880,13 +18874,9 @@
         <v>3.423</v>
       </c>
       <c r="J559" t="n">
-        <v>3.407</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>3.423</v>
+      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18915,11 +18905,13 @@
         <v>-101812322.6395455</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>3.426</v>
+      </c>
       <c r="J560" t="n">
-        <v>3.407</v>
+        <v>3.423</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -18957,8 +18949,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>3.423</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -18987,10 +18985,14 @@
         <v>-101826339.8595456</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>3.415</v>
+      </c>
+      <c r="J562" t="n">
+        <v>3.415</v>
+      </c>
       <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
@@ -19023,8 +19025,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>3.415</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19056,8 +19064,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>3.415</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19317,10 +19331,14 @@
         <v>-101923032.0049456</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="J572" t="n">
+        <v>3.416</v>
+      </c>
       <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
@@ -19350,11 +19368,19 @@
         <v>-101956573.2099456</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>3.417</v>
+      </c>
+      <c r="J573" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19383,11 +19409,19 @@
         <v>-101884985.2649456</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="J574" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19416,11 +19450,19 @@
         <v>-101841932.3749456</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>3.411</v>
+      </c>
+      <c r="J575" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19449,11 +19491,19 @@
         <v>-101914020.9349456</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>3.423</v>
+      </c>
+      <c r="J576" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19485,8 +19535,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19515,11 +19571,19 @@
         <v>-101867463.7399456</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>3.429</v>
+      </c>
+      <c r="J578" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19551,8 +19615,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19581,11 +19651,19 @@
         <v>-101896499.4099456</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>3.428</v>
+      </c>
+      <c r="J580" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19617,8 +19695,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19650,8 +19734,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19683,8 +19773,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19716,8 +19812,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19749,8 +19851,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19782,8 +19890,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19815,8 +19929,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19848,8 +19968,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19881,8 +20007,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19914,8 +20046,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19947,8 +20085,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19980,8 +20124,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20013,8 +20163,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20046,8 +20202,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20079,8 +20241,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20112,8 +20280,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20145,8 +20319,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20178,8 +20358,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20211,8 +20397,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20244,8 +20436,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20277,8 +20475,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20310,8 +20514,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20343,8 +20553,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20376,8 +20592,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20409,8 +20631,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20442,8 +20670,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20475,8 +20709,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20508,8 +20748,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20541,8 +20787,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20574,8 +20826,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20607,8 +20865,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20640,8 +20904,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20673,8 +20943,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20706,8 +20982,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20739,8 +21021,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20772,8 +21060,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20805,8 +21099,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20838,8 +21138,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20871,8 +21177,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20904,8 +21216,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20937,8 +21255,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20970,8 +21294,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21003,8 +21333,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21033,11 +21369,19 @@
         <v>-101846459.1446456</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>3.418</v>
+      </c>
+      <c r="J624" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21069,8 +21413,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21102,8 +21452,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21135,8 +21491,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21168,8 +21530,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21201,8 +21569,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21234,8 +21608,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21267,8 +21647,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21300,8 +21686,14 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21333,8 +21725,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21366,8 +21764,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21399,8 +21803,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21432,8 +21842,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21465,8 +21881,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21498,8 +21920,14 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21531,8 +21959,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21564,8 +21998,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21597,8 +22037,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21630,8 +22076,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21663,8 +22115,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21696,8 +22154,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21729,8 +22193,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21762,8 +22232,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21795,8 +22271,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -21828,8 +22310,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -21861,8 +22349,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -21894,8 +22388,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -21927,8 +22427,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -21960,8 +22466,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -21993,8 +22505,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22026,8 +22544,14 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22059,8 +22583,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22092,8 +22622,14 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22125,8 +22661,14 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22158,8 +22700,14 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22191,8 +22739,14 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22224,8 +22778,14 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22257,8 +22817,14 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22290,8 +22856,14 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22323,8 +22895,14 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22356,8 +22934,14 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22389,8 +22973,14 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22422,8 +23012,14 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22455,8 +23051,14 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22488,8 +23090,14 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22521,8 +23129,14 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22554,8 +23168,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22587,8 +23207,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22620,8 +23246,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22653,8 +23285,14 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22686,8 +23324,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22719,8 +23363,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22752,8 +23402,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22785,8 +23441,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22818,8 +23480,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -22851,8 +23519,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -22884,8 +23558,14 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -22917,8 +23597,14 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -22950,8 +23636,14 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -22983,8 +23675,14 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23016,8 +23714,14 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23049,8 +23753,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23082,8 +23792,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23115,8 +23831,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23148,8 +23870,14 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23181,8 +23909,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23214,8 +23948,14 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23247,8 +23987,14 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23280,8 +24026,14 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23313,8 +24065,14 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23346,8 +24104,14 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23379,8 +24143,14 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23412,8 +24182,14 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23445,8 +24221,14 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23478,8 +24260,14 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23511,8 +24299,14 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23544,8 +24338,14 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23577,8 +24377,14 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23610,8 +24416,14 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23643,8 +24455,14 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23676,8 +24494,14 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23709,8 +24533,14 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -23742,8 +24572,14 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -23775,8 +24611,14 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -23808,8 +24650,14 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -23841,8 +24689,14 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -23874,8 +24728,14 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -23907,8 +24767,14 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -23940,8 +24806,14 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -23973,8 +24845,14 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24006,8 +24884,14 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24039,8 +24923,14 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24072,8 +24962,14 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24105,8 +25001,14 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24138,8 +25040,14 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24171,8 +25079,14 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24204,8 +25118,14 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24237,8 +25157,14 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24270,8 +25196,14 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24303,8 +25235,14 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24336,8 +25274,14 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24369,8 +25313,14 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24402,8 +25352,14 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24435,8 +25391,14 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24468,8 +25430,14 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24501,8 +25469,14 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24534,8 +25508,14 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24567,8 +25547,14 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24600,8 +25586,14 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24633,8 +25625,14 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24666,8 +25664,14 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24699,8 +25703,14 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24732,8 +25742,14 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -24765,8 +25781,14 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -24798,8 +25820,14 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -24831,8 +25859,14 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -24864,8 +25898,14 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -24897,8 +25937,14 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -24930,8 +25976,14 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -24963,8 +26015,14 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -24996,8 +26054,14 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25029,8 +26093,14 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25062,8 +26132,14 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25095,8 +26171,14 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25128,8 +26210,14 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25158,11 +26246,17 @@
         <v>-101213004.9835531</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25194,8 +26288,14 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25224,11 +26324,17 @@
         <v>-101174457.6285531</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25257,11 +26363,17 @@
         <v>-101563789.5533531</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25290,11 +26402,17 @@
         <v>-101454904.3124531</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25326,8 +26444,14 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25359,8 +26483,14 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25392,8 +26522,14 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25425,8 +26561,14 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25458,8 +26600,14 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25491,8 +26639,14 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25524,8 +26678,14 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25557,8 +26717,14 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25590,8 +26756,14 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25623,8 +26795,14 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25656,8 +26834,14 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25689,8 +26873,14 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25722,8 +26912,14 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -25755,8 +26951,14 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -25788,8 +26990,14 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -25821,8 +27029,14 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -25854,8 +27068,14 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -25887,8 +27107,14 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -25920,8 +27146,14 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -25953,8 +27185,14 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -25986,8 +27224,14 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26016,11 +27260,17 @@
         <v>-101558676.0423531</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26052,8 +27302,14 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26085,8 +27341,14 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26118,8 +27380,14 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26148,11 +27416,17 @@
         <v>-101461056.1173531</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26181,11 +27455,17 @@
         <v>-101513620.6923531</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26217,8 +27497,14 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="J781" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26250,8 +27536,14 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26283,8 +27575,14 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26316,8 +27614,14 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26346,11 +27650,17 @@
         <v>-101685679.8329531</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="J785" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26382,8 +27692,14 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26412,11 +27728,17 @@
         <v>-101686500.8419531</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26445,11 +27767,17 @@
         <v>-101733058.0369531</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="J788" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26478,11 +27806,17 @@
         <v>-101671983.0069531</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26511,11 +27845,17 @@
         <v>-101595889.5269531</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26544,11 +27884,17 @@
         <v>-101595889.5269531</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="J791" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26577,11 +27923,17 @@
         <v>-101670981.7769531</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="J792" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26613,8 +27965,14 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="J793" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26643,11 +28001,17 @@
         <v>-101673484.8519531</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="J794" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26676,11 +28040,17 @@
         <v>-101729053.1169531</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="J795" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26712,8 +28082,14 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="J796" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26745,8 +28121,14 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="J797" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -26778,8 +28160,14 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="J798" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -26811,8 +28199,14 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="J799" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -26844,8 +28238,14 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="J800" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -26877,8 +28277,14 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="J801" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -26910,8 +28316,14 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="J802" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -26943,8 +28355,14 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="J803" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -26976,8 +28394,14 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="J804" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27009,8 +28433,14 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="J805" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27039,11 +28469,17 @@
         <v>-101557333.3714531</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="J806" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27072,11 +28508,17 @@
         <v>-101620911.4764531</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="J807" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27108,8 +28550,14 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="J808" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27138,11 +28586,17 @@
         <v>-101749569.5314531</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="J809" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27174,8 +28628,14 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="J810" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27204,11 +28664,17 @@
         <v>-101837894.3764531</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="J811" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27240,8 +28706,14 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="J812" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27273,8 +28745,14 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="J813" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27306,8 +28784,14 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="J814" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27339,8 +28823,14 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="J815" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27372,8 +28862,14 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="J816" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27405,8 +28901,14 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="J817" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27438,8 +28940,14 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="J818" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27471,8 +28979,14 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="J819" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27504,8 +29018,14 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="J820" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27537,8 +29057,14 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="J821" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27570,8 +29096,14 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="J822" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27603,8 +29135,14 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="J823" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27636,8 +29174,14 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="J824" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27669,8 +29213,14 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="J825" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27702,8 +29252,14 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="J826" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -27735,8 +29291,14 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="J827" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -27765,11 +29327,17 @@
         <v>-101953887.9241531</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="J828" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27798,11 +29366,17 @@
         <v>-101648671.1484531</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="J829" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -27834,8 +29408,14 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="J830" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -27867,8 +29447,14 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="J831" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -27900,8 +29486,14 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="J832" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -27933,8 +29525,14 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="J833" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -27966,8 +29564,14 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="J834" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -27999,8 +29603,14 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="J835" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28032,8 +29642,14 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28065,8 +29681,14 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="J837" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28098,8 +29720,14 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="J838" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28131,8 +29759,14 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="J839" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28164,8 +29798,14 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="J840" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28197,8 +29837,14 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="J841" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28230,8 +29876,14 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="J842" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28263,8 +29915,14 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="J843" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28296,8 +29954,14 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="J844" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28329,8 +29993,14 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="J845" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28362,8 +30032,14 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="J846" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28395,8 +30071,14 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="J847" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28428,8 +30110,14 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="J848" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28461,8 +30149,14 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="J849" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28494,8 +30188,14 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="J850" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28527,8 +30227,14 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="J851" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28560,8 +30266,14 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="J852" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28593,8 +30305,14 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="J853" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28626,8 +30344,14 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="J854" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28659,8 +30383,14 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="J855" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28692,8 +30422,14 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="J856" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28725,8 +30461,14 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="J857" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -28758,8 +30500,14 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="J858" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -28791,8 +30539,14 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="J859" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -28824,8 +30578,14 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="J860" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -28857,8 +30617,14 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="J861" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -28890,8 +30656,14 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="J862" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -28923,8 +30695,14 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="J863" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -28956,8 +30734,14 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="J864" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -28989,8 +30773,14 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="J865" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -29022,8 +30812,14 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="J866" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29055,8 +30851,14 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="J867" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29088,8 +30890,14 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="J868" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29121,8 +30929,14 @@
         <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="J869" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29154,8 +30968,14 @@
         <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="J870" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29187,8 +31007,14 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="J871" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29220,8 +31046,14 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="J872" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29253,8 +31085,14 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="J873" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29286,8 +31124,14 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="J874" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29319,8 +31163,14 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="J875" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29352,8 +31202,14 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="J876" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29385,8 +31241,14 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="J877" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29418,8 +31280,14 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="J878" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29451,8 +31319,14 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="J879" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29484,8 +31358,14 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="J880" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29517,8 +31397,14 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="J881" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29550,8 +31436,14 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="J882" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29583,8 +31475,14 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="J883" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29616,8 +31514,14 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="J884" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -29649,8 +31553,14 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="J885" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -29682,8 +31592,14 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="J886" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -29715,8 +31631,14 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="J887" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -29748,8 +31670,14 @@
         <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="J888" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -29781,8 +31709,14 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="J889" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -29814,8 +31748,14 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="J890" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -29847,8 +31787,14 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="J891" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -29880,8 +31826,14 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="J892" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -29913,8 +31865,14 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="J893" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -29946,8 +31904,14 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="J894" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -29979,8 +31943,14 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="J895" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -30012,8 +31982,14 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="J896" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -30045,8 +32021,14 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="J897" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30078,8 +32060,14 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="J898" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30111,8 +32099,14 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="J899" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30144,8 +32138,14 @@
         <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="J900" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30177,8 +32177,14 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="J901" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30210,8 +32216,14 @@
         <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="J902" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30243,8 +32255,14 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="J903" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30276,8 +32294,14 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="J904" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30309,8 +32333,14 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="J905" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30342,8 +32372,14 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="J906" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30375,8 +32411,14 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="J907" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30408,8 +32450,14 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="J908" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30441,8 +32489,14 @@
         <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="J909" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30474,8 +32528,14 @@
         <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="J910" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -30507,8 +32567,14 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="J911" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -30540,8 +32606,14 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="J912" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -30573,8 +32645,14 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="J913" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -30606,8 +32684,14 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="J914" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -30639,8 +32723,14 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="J915" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -30672,8 +32762,14 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="J916" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -30705,8 +32801,14 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="J917" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -30738,8 +32840,14 @@
         <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="J918" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -30771,8 +32879,14 @@
         <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="J919" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -30804,8 +32918,14 @@
         <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
-      <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="J920" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -30837,8 +32957,14 @@
         <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="J921" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -30870,8 +32996,14 @@
         <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="J922" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -30903,8 +33035,14 @@
         <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
-      <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="J923" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -30936,8 +33074,14 @@
         <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
-      <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="J924" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -30969,8 +33113,14 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="J925" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -31002,8 +33152,14 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="J926" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -31035,8 +33191,14 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="J927" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31068,8 +33230,14 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="J928" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -31101,8 +33269,14 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="J929" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31134,8 +33308,14 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="J930" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -31167,8 +33347,14 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="J931" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31200,8 +33386,14 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="J932" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -31233,8 +33425,14 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="J933" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -31266,8 +33464,14 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="J934" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -31299,8 +33503,14 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="J935" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -31332,8 +33542,14 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="J936" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -31365,8 +33581,14 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="J937" t="n">
+        <v>3.416</v>
+      </c>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
